--- a/PES Madya P2 Team.xlsx
+++ b/PES Madya P2 Team.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="261">
   <si>
     <t>P.E.S College of Engineering, Mandya.
  Department of Computer Science &amp; Engineering.
@@ -328,6 +328,39 @@
   <si>
     <t xml:space="preserve">"An Employee Onboarding system helps organizations smoothly integrate new employees by collecting their details, sharing company policies, and tracking onboarding tasks. It provides a structured and interactive way to manage the initial steps of a new hire’s journey.
 "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1. Employee Information Form:
+Collect personal details like:
+Full name
+Email address
+Contact number
+Date of joining
+Department and role
+2. Document Upload:
+Allow uploading of important documents such as:
+Resume
+Identification proof
+Signed contracts (simulated with file input)
+3. Onboarding Checklist:
+Present a checklist of common onboarding tasks such as:
+Completing paperwork
+Attending orientation
+Setting up workspace
+Meeting team members
+Allow marking tasks as complete
+4. Progress Tracking:
+Show onboarding completion status (e.g., percentage or progress bar)
+5. Notifications &amp; Reminders (Optional):
+Simulate reminders for pending tasks using alerts or messages
+6. Validation:
+Validate required fields and file formats
+Display error messages for incomplete or incorrect entries
+Technologies Used:
+HTML: Forms, inputs, checklists, and progress bars
+CSS: Styling for a clean, professional user interface
+JavaScript: Form validation, file input handling, checklist state management, and progress updates"
 </t>
   </si>
   <si>
@@ -729,6 +762,7 @@
   <si>
     <t xml:space="preserve">"1. Tracking Number Input:
 A simple form for users to input their shipment tracking number
+sender, receiver, shipmentType, dateofordered, current location, status
 2. Shipment Status Display:
 Show current status such as:
 Dispatched
@@ -933,7 +967,7 @@
 Maintain a database of vendors with details such as:
 Vendor name
 Contact person and contact details
-Products or services provided
+Products or services provided, dateofservice
 Payment terms
 2. Order Tracking:
 Track purchase orders placed with vendors
@@ -2223,7 +2257,7 @@
         <v>74</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2246,10 +2280,10 @@
     <row r="20">
       <c r="A20" s="9"/>
       <c r="C20" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -2273,13 +2307,13 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="106.5" customHeight="1">
       <c r="A21" s="9"/>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -2308,31 +2342,31 @@
         <v>6.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2355,13 +2389,13 @@
     <row r="23">
       <c r="A23" s="9"/>
       <c r="C23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="2"/>
@@ -2385,13 +2419,13 @@
     <row r="24">
       <c r="A24" s="9"/>
       <c r="C24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="2"/>
@@ -2415,13 +2449,13 @@
     <row r="25">
       <c r="A25" s="9"/>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="2"/>
@@ -2447,31 +2481,31 @@
         <v>7.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -2494,13 +2528,13 @@
     <row r="27">
       <c r="A27" s="9"/>
       <c r="C27" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="2"/>
@@ -2524,13 +2558,13 @@
     <row r="28">
       <c r="A28" s="9"/>
       <c r="C28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="2"/>
@@ -2554,13 +2588,13 @@
     <row r="29">
       <c r="A29" s="9"/>
       <c r="C29" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="2"/>
@@ -2586,31 +2620,31 @@
         <v>8.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -2633,13 +2667,13 @@
     <row r="31">
       <c r="A31" s="9"/>
       <c r="C31" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="2"/>
@@ -2663,13 +2697,13 @@
     <row r="32">
       <c r="A32" s="9"/>
       <c r="C32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="2"/>
@@ -2693,13 +2727,13 @@
     <row r="33">
       <c r="A33" s="9"/>
       <c r="C33" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="2"/>
@@ -2725,31 +2759,31 @@
         <v>9.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -2772,13 +2806,13 @@
     <row r="35">
       <c r="A35" s="9"/>
       <c r="C35" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="2"/>
@@ -2802,13 +2836,13 @@
     <row r="36">
       <c r="A36" s="9"/>
       <c r="C36" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="2"/>
@@ -2832,13 +2866,13 @@
     <row r="37">
       <c r="A37" s="9"/>
       <c r="C37" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="10"/>
       <c r="K37" s="2"/>
@@ -2864,31 +2898,31 @@
         <v>10.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2911,13 +2945,13 @@
     <row r="39">
       <c r="A39" s="9"/>
       <c r="C39" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="2"/>
@@ -2941,13 +2975,13 @@
     <row r="40">
       <c r="A40" s="9"/>
       <c r="C40" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="2"/>
@@ -2971,13 +3005,13 @@
     <row r="41">
       <c r="A41" s="9"/>
       <c r="C41" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="2"/>
@@ -3003,31 +3037,31 @@
         <v>11.0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3050,13 +3084,13 @@
     <row r="43">
       <c r="A43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43" s="10"/>
       <c r="K43" s="2"/>
@@ -3080,13 +3114,13 @@
     <row r="44">
       <c r="A44" s="9"/>
       <c r="C44" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="2"/>
@@ -3110,13 +3144,13 @@
     <row r="45">
       <c r="A45" s="9"/>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="2"/>
@@ -3142,31 +3176,31 @@
         <v>12.0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -3189,13 +3223,13 @@
     <row r="47">
       <c r="A47" s="9"/>
       <c r="C47" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="2"/>
@@ -3219,13 +3253,13 @@
     <row r="48">
       <c r="A48" s="9"/>
       <c r="C48" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="2"/>
@@ -3249,13 +3283,13 @@
     <row r="49">
       <c r="A49" s="9"/>
       <c r="C49" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J49" s="10"/>
       <c r="K49" s="2"/>
@@ -3281,31 +3315,31 @@
         <v>13.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -3328,13 +3362,13 @@
     <row r="51">
       <c r="A51" s="9"/>
       <c r="C51" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" s="10"/>
       <c r="K51" s="2"/>
@@ -3358,13 +3392,13 @@
     <row r="52">
       <c r="A52" s="9"/>
       <c r="C52" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="2"/>
@@ -3388,13 +3422,13 @@
     <row r="53">
       <c r="A53" s="9"/>
       <c r="C53" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="10"/>
       <c r="K53" s="2"/>
@@ -3420,31 +3454,31 @@
         <v>14.0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -3467,13 +3501,13 @@
     <row r="55">
       <c r="A55" s="9"/>
       <c r="C55" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J55" s="10"/>
       <c r="K55" s="2"/>
@@ -3497,13 +3531,13 @@
     <row r="56">
       <c r="A56" s="9"/>
       <c r="C56" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="2"/>
@@ -3527,13 +3561,13 @@
     <row r="57">
       <c r="A57" s="9"/>
       <c r="C57" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J57" s="10"/>
       <c r="K57" s="2"/>
@@ -3559,31 +3593,31 @@
         <v>15.0</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -3606,13 +3640,13 @@
     <row r="59">
       <c r="A59" s="9"/>
       <c r="C59" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="2"/>
@@ -3636,13 +3670,13 @@
     <row r="60">
       <c r="A60" s="9"/>
       <c r="C60" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="2"/>
@@ -3666,13 +3700,13 @@
     <row r="61">
       <c r="A61" s="9"/>
       <c r="C61" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="2"/>
@@ -3698,31 +3732,31 @@
         <v>16.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -3745,13 +3779,13 @@
     <row r="63">
       <c r="A63" s="9"/>
       <c r="C63" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="2"/>
@@ -3775,13 +3809,13 @@
     <row r="64">
       <c r="A64" s="9"/>
       <c r="C64" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="2"/>
@@ -3805,13 +3839,13 @@
     <row r="65">
       <c r="A65" s="9"/>
       <c r="C65" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="2"/>
@@ -3837,31 +3871,31 @@
         <v>17.0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3884,13 +3918,13 @@
     <row r="67">
       <c r="A67" s="9"/>
       <c r="C67" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67" s="2"/>
@@ -3914,13 +3948,13 @@
     <row r="68">
       <c r="A68" s="9"/>
       <c r="C68" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68" s="2"/>
@@ -3944,13 +3978,13 @@
     <row r="69">
       <c r="A69" s="9"/>
       <c r="C69" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69" s="2"/>
@@ -3976,31 +4010,31 @@
         <v>18.0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -4023,13 +4057,13 @@
     <row r="71">
       <c r="A71" s="9"/>
       <c r="C71" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71" s="2"/>
@@ -4054,13 +4088,13 @@
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -30999,134 +31033,134 @@
     </row>
   </sheetData>
   <mergeCells count="129">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
     <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="I38:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="F46:F49"/>
     <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="J46:J49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
     <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="I50:I53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="F54:F57"/>
     <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="F58:F61"/>
     <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="J58:J61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="F62:F65"/>
     <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H58:H61"/>
     <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="J62:J65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G22:G25"/>
     <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="H26:H29"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I38:I41"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A72"/>
     <mergeCell ref="B70:B72"/>
     <mergeCell ref="F70:F72"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="G70:G72"/>
     <mergeCell ref="H70:H72"/>
-    <mergeCell ref="J38:J41"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J46:J49"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="I70:I72"/>
     <mergeCell ref="J70:J72"/>
   </mergeCells>
   <drawing r:id="rId1"/>
